--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/1 CUESTIONARIOS/4 Cuestionario con Contabilidad.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/1 CUESTIONARIOS/4 Cuestionario con Contabilidad.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\TAREA 1 ACTUALIZAR PT\1 PAPELES DE TRABAJO AUDITORIA\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO DEL CONTROL INTERNO\1 CUESTIONARIOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\1 CUESTIONARIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A6195F-C823-4075-9E9E-D86A72BB155D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9150"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -129,21 +130,6 @@
   </si>
   <si>
     <r>
-      <t>ENTIDAD XXXXXXXXXXXXXXXXXXXXX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Auditoria de Estados Financieros           </t>
     </r>
     <r>
@@ -192,11 +178,14 @@
   <si>
     <t>PL-3.4</t>
   </si>
+  <si>
+    <t xml:space="preserve">ENTIDAD XXXXXXXXXXXXXXXXXXXXX </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -345,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -416,6 +405,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,7 +447,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -763,11 +764,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,7 +787,7 @@
       <c r="C3" s="28"/>
       <c r="F3" s="1"/>
       <c r="G3" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -810,31 +811,39 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="2:16" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C8" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="B8" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:16" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="C9" s="28" t="s">
-        <v>35</v>
-      </c>
+      <c r="B9" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="4"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:16" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="C10" s="28" t="s">
+      <c r="B10" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:16" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="2:16" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C11" s="27" t="s">
-        <v>37</v>
-      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1149,6 +1158,12 @@
       <c r="B93" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
